--- a/data/jin-kazama-tekken-8-frame-data.xlsx
+++ b/data/jin-kazama-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,15 +544,11 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -582,15 +578,11 @@
       <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -690,15 +682,11 @@
       <c r="D9" t="n">
         <v>20</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -724,15 +712,11 @@
       <c r="D10" t="n">
         <v>14</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -780,15 +764,11 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -814,15 +794,11 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -849,10 +825,8 @@
         <v>10</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="F14" t="n">
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -874,15 +848,11 @@
       <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -908,15 +878,11 @@
       <c r="D16" t="n">
         <v>10</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>70</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -942,15 +908,11 @@
       <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -976,15 +938,11 @@
       <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1010,15 +968,11 @@
       <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1044,15 +998,11 @@
       <c r="D20" t="n">
         <v>10</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1078,15 +1028,11 @@
       <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1112,10 +1058,8 @@
       <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E22" t="n">
+        <v>9</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1138,15 +1082,11 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1172,15 +1112,11 @@
       <c r="D24" t="n">
         <v>14</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1206,15 +1142,11 @@
       <c r="D25" t="n">
         <v>14</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+12	</t>
-        </is>
+      <c r="E25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1244,15 +1176,11 @@
       <c r="D26" t="n">
         <v>14</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E26" t="n">
+        <v>13</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1278,15 +1206,11 @@
       <c r="D27" t="n">
         <v>13</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1312,15 +1236,11 @@
       <c r="D28" t="n">
         <v>14</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E28" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1346,15 +1266,11 @@
       <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1380,15 +1296,11 @@
       <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1418,15 +1330,11 @@
       <c r="D31" t="n">
         <v>14</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1452,15 +1360,11 @@
       <c r="D32" t="n">
         <v>16</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1486,15 +1390,11 @@
       <c r="D33" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+11	</t>
-        </is>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1524,15 +1424,11 @@
       <c r="D34" t="n">
         <v>14</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1558,15 +1454,11 @@
       <c r="D35" t="n">
         <v>13</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1592,15 +1484,11 @@
       <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1648,15 +1536,11 @@
       <c r="D38" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1682,15 +1566,11 @@
       <c r="D39" t="n">
         <v>20</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,15 +1596,11 @@
       <c r="D40" t="n">
         <v>20</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1750,15 +1626,11 @@
       <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>70</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1784,15 +1656,11 @@
       <c r="D42" t="n">
         <v>22</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E42" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1818,15 +1686,11 @@
       <c r="D43" t="n">
         <v>15</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
+      <c r="E43" t="n">
+        <v>13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1892,15 +1756,11 @@
       <c r="D46" t="n">
         <v>16</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E46" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1926,15 +1786,11 @@
       <c r="D47" t="n">
         <v>15</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-19	</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E47" t="n">
+        <v>19</v>
+      </c>
+      <c r="F47" t="n">
+        <v>70</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1960,15 +1816,11 @@
       <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1994,15 +1846,11 @@
       <c r="D49" t="n">
         <v>16</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2028,15 +1876,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-7</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2062,15 +1906,11 @@
       <c r="D51" t="n">
         <v>16</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>70</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2096,15 +1936,11 @@
       <c r="D52" t="n">
         <v>16</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>70</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2130,15 +1966,11 @@
       <c r="D53" t="n">
         <v>20</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>70</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2164,15 +1996,11 @@
       <c r="D54" t="n">
         <v>20</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2198,10 +2026,8 @@
       <c r="D55" t="n">
         <v>19</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-25	</t>
-        </is>
+      <c r="E55" t="n">
+        <v>25</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2225,10 +2051,8 @@
         <v>19</v>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F56" t="n">
+        <v>70</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2251,10 +2075,8 @@
         <v>19</v>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="F57" t="n">
+        <v>70</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2277,10 +2099,8 @@
         <v>19</v>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F58" t="n">
+        <v>70</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2303,10 +2123,8 @@
         <v>19</v>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F59" t="n">
+        <v>70</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2395,10 +2213,8 @@
         <v>12</v>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F63" t="n">
+        <v>70</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2420,15 +2236,11 @@
       <c r="D64" t="n">
         <v>15</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E64" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2454,15 +2266,11 @@
       <c r="D65" t="n">
         <v>15</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+2	</t>
-        </is>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2488,15 +2296,11 @@
       <c r="D66" t="n">
         <v>16</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E66" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2522,15 +2326,11 @@
       <c r="D67" t="n">
         <v>15</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2578,15 +2378,11 @@
       <c r="D69" t="n">
         <v>17</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>70</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2612,15 +2408,11 @@
       <c r="D70" t="n">
         <v>23</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2650,15 +2442,11 @@
       <c r="D71" t="n">
         <v>18</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E71" t="n">
+        <v>12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2684,15 +2472,11 @@
       <c r="D72" t="n">
         <v>16</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2718,15 +2502,11 @@
       <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2752,15 +2532,11 @@
       <c r="D74" t="n">
         <v>22</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E74" t="n">
+        <v>11</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2786,15 +2562,11 @@
       <c r="D75" t="n">
         <v>22</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2820,15 +2592,11 @@
       <c r="D76" t="n">
         <v>15</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-20	</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
+      <c r="E76" t="n">
+        <v>20</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-8</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2854,15 +2622,11 @@
       <c r="D77" t="n">
         <v>15</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E77" t="n">
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>70</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2888,15 +2652,11 @@
       <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E78" t="n">
+        <v>13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>70</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2922,15 +2682,9 @@
       <c r="D79" t="n">
         <v>75</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2956,15 +2710,11 @@
       <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>70</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2994,15 +2744,11 @@
       <c r="D81" t="n">
         <v>23</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>70</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3028,15 +2774,11 @@
       <c r="D82" t="n">
         <v>23</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3084,15 +2826,11 @@
       <c r="D84" t="n">
         <v>15</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E84" t="n">
+        <v>7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3118,15 +2856,11 @@
       <c r="D85" t="n">
         <v>15</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3152,15 +2886,11 @@
       <c r="D86" t="n">
         <v>15</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>70</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3186,15 +2916,11 @@
       <c r="D87" t="n">
         <v>15</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E87" t="n">
+        <v>14</v>
+      </c>
+      <c r="F87" t="n">
+        <v>70</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3220,15 +2946,11 @@
       <c r="D88" t="n">
         <v>15</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E88" t="n">
+        <v>12</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3254,15 +2976,11 @@
       <c r="D89" t="n">
         <v>15</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>17</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3292,15 +3010,11 @@
       <c r="D90" t="n">
         <v>22</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E90" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>70</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3326,15 +3040,11 @@
       <c r="D91" t="n">
         <v>10</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3360,15 +3070,11 @@
       <c r="D92" t="n">
         <v>11</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3394,15 +3100,11 @@
       <c r="D93" t="n">
         <v>16</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
+      <c r="E93" t="n">
+        <v>17</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3428,15 +3130,11 @@
       <c r="D94" t="n">
         <v>12</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
+      <c r="E94" t="n">
+        <v>15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-4</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3462,15 +3160,11 @@
       <c r="D95" t="n">
         <v>13</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3496,15 +3190,11 @@
       <c r="D96" t="n">
         <v>13</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E96" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3530,15 +3220,11 @@
       <c r="D97" t="n">
         <v>13</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E97" t="n">
+        <v>9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3568,15 +3254,11 @@
       <c r="D98" t="n">
         <v>13</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E98" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3602,15 +3284,11 @@
       <c r="D99" t="n">
         <v>13</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3636,15 +3314,11 @@
       <c r="D100" t="n">
         <v>13</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3670,15 +3344,11 @@
       <c r="D101" t="n">
         <v>13</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F101" t="n">
+        <v>70</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3722,15 +3392,11 @@
       <c r="D103" t="n">
         <v>13</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3756,15 +3422,11 @@
       <c r="D104" t="n">
         <v>14</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E104" t="n">
+        <v>12</v>
+      </c>
+      <c r="F104" t="n">
+        <v>70</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3790,10 +3452,8 @@
       <c r="D105" t="n">
         <v>16</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
+      <c r="E105" t="n">
+        <v>9</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -3816,15 +3476,11 @@
       <c r="D106" t="n">
         <v>11</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E106" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3870,15 +3526,11 @@
       <c r="D108" t="n">
         <v>25</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-26	</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E108" t="n">
+        <v>26</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3904,15 +3556,11 @@
       <c r="D109" t="n">
         <v>16</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3942,15 +3590,11 @@
       <c r="D110" t="n">
         <v>16</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F110" t="n">
+        <v>70</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3980,15 +3624,11 @@
       <c r="D111" t="n">
         <v>11</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E111" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" t="n">
+        <v>70</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4018,15 +3658,11 @@
       <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4056,10 +3692,8 @@
       <c r="D113" t="n">
         <v>16</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
+      <c r="E113" t="n">
+        <v>9</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -4086,15 +3720,11 @@
       <c r="D114" t="n">
         <v>20</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-31	</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E114" t="n">
+        <v>31</v>
+      </c>
+      <c r="F114" t="n">
+        <v>70</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4150,15 +3780,11 @@
       <c r="D116" t="n">
         <v>16</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4189,10 +3815,8 @@
         <v>16</v>
       </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F117" t="n">
+        <v>70</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4218,15 +3842,11 @@
       <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>70</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4282,10 +3902,8 @@
       <c r="D120" t="n">
         <v>21</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E120" t="n">
+        <v>5</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -4312,15 +3930,11 @@
       <c r="D121" t="n">
         <v>17</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+10</t>
-        </is>
+      <c r="E121" t="n">
+        <v>9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4350,15 +3964,11 @@
       <c r="D122" t="n">
         <v>28</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>70</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4402,15 +4012,11 @@
       <c r="D124" t="n">
         <v>22</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E124" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4436,134 +4042,14 @@
       <c r="D125" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
+      <c r="E125" t="n">
+        <v>16</v>
+      </c>
+      <c r="F125" t="n">
+        <v>70</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Zanshin ,4</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>24</v>
-      </c>
-      <c r="D126" t="n">
-        <v>28</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Zanshin ,1+2</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>L,TH</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>30</v>
-      </c>
-      <c r="D127" t="n">
-        <v>24</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Zanshin ,3+4</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>25</v>
-      </c>
-      <c r="D128" t="n">
-        <v>22</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Zanshin ,U+1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>20</v>
-      </c>
-      <c r="D129" t="n">
-        <v>14</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/jin-kazama-tekken-8-frame-data.xlsx
+++ b/data/jin-kazama-tekken-8-frame-data.xlsx
@@ -545,7 +545,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F5" t="n">
         <v>70</v>
@@ -683,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F10" t="n">
         <v>70</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F16" t="n">
         <v>70</v>
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F17" t="n">
         <v>-1</v>
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -999,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
@@ -1143,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
@@ -1177,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F28" t="n">
         <v>-5</v>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F30" t="n">
         <v>9</v>
@@ -1331,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
@@ -1361,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F32" t="n">
         <v>4</v>
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F33" t="n">
         <v>11</v>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F34" t="n">
         <v>70</v>
@@ -1455,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -1485,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F39" t="n">
         <v>8</v>
@@ -1597,7 +1597,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F40" t="n">
         <v>8</v>
@@ -1627,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F41" t="n">
         <v>70</v>
@@ -1657,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F43" t="n">
         <v>-2</v>
@@ -1757,7 +1757,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F46" t="n">
         <v>-1</v>
@@ -1787,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F47" t="n">
         <v>70</v>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F48" t="n">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F49" t="n">
         <v>-4</v>
@@ -1877,7 +1877,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F50" t="n">
         <v>-7</v>
@@ -1907,7 +1907,7 @@
         <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F51" t="n">
         <v>70</v>
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F52" t="n">
         <v>70</v>
@@ -1967,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F53" t="n">
         <v>70</v>
@@ -1997,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
@@ -2297,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F66" t="n">
         <v>5</v>
@@ -2327,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F69" t="n">
         <v>70</v>
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F70" t="n">
         <v>6</v>
@@ -2443,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F71" t="n">
         <v>-1</v>
@@ -2473,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F72" t="n">
         <v>4</v>
@@ -2503,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F73" t="n">
         <v>6</v>
@@ -2533,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F74" t="n">
         <v>4</v>
@@ -2563,7 +2563,7 @@
         <v>22</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F75" t="n">
         <v>6</v>
@@ -2593,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F76" t="n">
         <v>-8</v>
@@ -2623,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F77" t="n">
         <v>70</v>
@@ -2653,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F78" t="n">
         <v>70</v>
@@ -2711,7 +2711,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F80" t="n">
         <v>70</v>
@@ -2775,7 +2775,7 @@
         <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>7</v>
@@ -2827,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F84" t="n">
         <v>4</v>
@@ -2857,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F85" t="n">
         <v>6</v>
@@ -2887,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F86" t="n">
         <v>70</v>
@@ -2917,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F87" t="n">
         <v>70</v>
@@ -2947,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F88" t="n">
         <v>6</v>
@@ -2977,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F89" t="n">
         <v>17</v>
@@ -3011,7 +3011,7 @@
         <v>22</v>
       </c>
       <c r="E90" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
         <v>70</v>
@@ -3041,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F91" t="n">
         <v>6</v>
@@ -3071,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F92" t="n">
         <v>7</v>
@@ -3101,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F93" t="n">
         <v>-3</v>
@@ -3131,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F94" t="n">
         <v>-4</v>
@@ -3161,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F95" t="n">
         <v>5</v>
@@ -3191,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F96" t="n">
         <v>3</v>
@@ -3221,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F97" t="n">
         <v>2</v>
@@ -3255,7 +3255,7 @@
         <v>13</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F98" t="n">
         <v>4</v>
@@ -3285,7 +3285,7 @@
         <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F99" t="n">
         <v>4</v>
@@ -3315,7 +3315,7 @@
         <v>13</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F100" t="n">
         <v>7</v>
@@ -3345,7 +3345,7 @@
         <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F101" t="n">
         <v>70</v>
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F103" t="n">
         <v>4</v>
@@ -3423,7 +3423,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F104" t="n">
         <v>70</v>
@@ -3453,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -3477,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F106" t="n">
         <v>8</v>
@@ -3527,7 +3527,7 @@
         <v>25</v>
       </c>
       <c r="E108" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F108" t="n">
         <v>70</v>
@@ -3557,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F109" t="n">
         <v>70</v>
@@ -3591,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F110" t="n">
         <v>70</v>
@@ -3625,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F111" t="n">
         <v>70</v>
@@ -3659,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
         <v>70</v>
@@ -3693,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -3721,7 +3721,7 @@
         <v>20</v>
       </c>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F114" t="n">
         <v>70</v>
@@ -3781,7 +3781,7 @@
         <v>16</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F116" t="n">
         <v>8</v>
@@ -3843,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F118" t="n">
         <v>70</v>
@@ -3903,7 +3903,7 @@
         <v>21</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F121" t="n">
         <v>10</v>
@@ -3965,7 +3965,7 @@
         <v>28</v>
       </c>
       <c r="E122" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
         <v>70</v>
@@ -4013,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F124" t="n">
         <v>70</v>
@@ -4043,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="E125" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F125" t="n">
         <v>70</v>
